--- a/SchedulingData/static6/pso/scheduling1_19.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,254 +462,254 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.76</v>
+        <v>77.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.204</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49.9</v>
+        <v>78.5</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54.76</v>
+        <v>77.2</v>
       </c>
       <c r="D4" t="n">
-        <v>113.4</v>
+        <v>127.84</v>
       </c>
       <c r="E4" t="n">
-        <v>21.98</v>
+        <v>21.496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>74.95999999999999</v>
+        <v>64.42</v>
       </c>
       <c r="E5" t="n">
-        <v>25.164</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>113.4</v>
+        <v>127.84</v>
       </c>
       <c r="D6" t="n">
-        <v>175.1</v>
+        <v>206.74</v>
       </c>
       <c r="E6" t="n">
-        <v>16.94</v>
+        <v>16.696</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>57.08</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>27.492</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.08</v>
+        <v>78.5</v>
       </c>
       <c r="D8" t="n">
-        <v>95.72</v>
+        <v>138.74</v>
       </c>
       <c r="E8" t="n">
-        <v>24.268</v>
+        <v>23.376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>95.72</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>145.2</v>
+        <v>148.22</v>
       </c>
       <c r="E9" t="n">
-        <v>21.46</v>
+        <v>21.948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.9</v>
+        <v>148.22</v>
       </c>
       <c r="D10" t="n">
-        <v>104.94</v>
+        <v>200.66</v>
       </c>
       <c r="E10" t="n">
-        <v>23.296</v>
+        <v>18.824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>87.84</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>25.856</v>
+        <v>25.164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>175.1</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>245.04</v>
+        <v>153.38</v>
       </c>
       <c r="E12" t="n">
-        <v>13.076</v>
+        <v>20.952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>64.42</v>
       </c>
       <c r="D13" t="n">
-        <v>71.40000000000001</v>
+        <v>143.68</v>
       </c>
       <c r="E13" t="n">
-        <v>24.54</v>
+        <v>21.932</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>87.84</v>
+        <v>138.74</v>
       </c>
       <c r="D14" t="n">
-        <v>155.02</v>
+        <v>177.06</v>
       </c>
       <c r="E14" t="n">
-        <v>22.268</v>
+        <v>20.184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,70 +717,70 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>104.94</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>172.1</v>
+        <v>77.66</v>
       </c>
       <c r="E15" t="n">
-        <v>18.2</v>
+        <v>24.904</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>245.04</v>
+        <v>177.06</v>
       </c>
       <c r="D16" t="n">
-        <v>298.98</v>
+        <v>219.3</v>
       </c>
       <c r="E16" t="n">
-        <v>8.811999999999999</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>71.40000000000001</v>
+        <v>200.66</v>
       </c>
       <c r="D17" t="n">
-        <v>129.2</v>
+        <v>254</v>
       </c>
       <c r="E17" t="n">
-        <v>20.88</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>129.2</v>
+        <v>153.38</v>
       </c>
       <c r="D18" t="n">
-        <v>173.22</v>
+        <v>210.18</v>
       </c>
       <c r="E18" t="n">
-        <v>18.108</v>
+        <v>15.912</v>
       </c>
     </row>
     <row r="19">
@@ -789,93 +789,93 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>172.1</v>
+        <v>143.68</v>
       </c>
       <c r="D19" t="n">
-        <v>230.62</v>
+        <v>221.4</v>
       </c>
       <c r="E19" t="n">
-        <v>13.988</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>74.95999999999999</v>
+        <v>206.74</v>
       </c>
       <c r="D20" t="n">
-        <v>146.1</v>
+        <v>256.68</v>
       </c>
       <c r="E20" t="n">
-        <v>21.16</v>
+        <v>12.832</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>146.1</v>
+        <v>210.18</v>
       </c>
       <c r="D21" t="n">
-        <v>203.2</v>
+        <v>261.98</v>
       </c>
       <c r="E21" t="n">
-        <v>17.08</v>
+        <v>12.352</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>230.62</v>
+        <v>256.68</v>
       </c>
       <c r="D22" t="n">
-        <v>297.32</v>
+        <v>330.16</v>
       </c>
       <c r="E22" t="n">
-        <v>9.428000000000001</v>
+        <v>9.584</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>298.98</v>
+        <v>219.3</v>
       </c>
       <c r="D23" t="n">
-        <v>372.14</v>
+        <v>287.9</v>
       </c>
       <c r="E23" t="n">
-        <v>5.116</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>145.2</v>
+        <v>261.98</v>
       </c>
       <c r="D24" t="n">
-        <v>187</v>
+        <v>300.56</v>
       </c>
       <c r="E24" t="n">
-        <v>17.92</v>
+        <v>9.624000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>155.02</v>
+        <v>221.4</v>
       </c>
       <c r="D25" t="n">
-        <v>226.46</v>
+        <v>282.74</v>
       </c>
       <c r="E25" t="n">
-        <v>19.244</v>
+        <v>13.756</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>226.46</v>
+        <v>77.66</v>
       </c>
       <c r="D26" t="n">
-        <v>308.46</v>
+        <v>143.56</v>
       </c>
       <c r="E26" t="n">
-        <v>16.124</v>
+        <v>19.444</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>372.14</v>
+        <v>143.56</v>
       </c>
       <c r="D27" t="n">
-        <v>425.54</v>
+        <v>214.5</v>
       </c>
       <c r="E27" t="n">
-        <v>1.396</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>425.54</v>
+        <v>254</v>
       </c>
       <c r="D28" t="n">
-        <v>529.05</v>
+        <v>325.78</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>12.012</v>
       </c>
     </row>
     <row r="29">
@@ -979,112 +979,112 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>308.46</v>
+        <v>214.5</v>
       </c>
       <c r="D29" t="n">
-        <v>387.38</v>
+        <v>267.2</v>
       </c>
       <c r="E29" t="n">
-        <v>11.852</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>529.05</v>
+        <v>287.9</v>
       </c>
       <c r="D30" t="n">
-        <v>564.15</v>
+        <v>341.44</v>
       </c>
       <c r="E30" t="n">
-        <v>27.68</v>
+        <v>9.616</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>187</v>
+        <v>341.44</v>
       </c>
       <c r="D31" t="n">
-        <v>259.06</v>
+        <v>413.88</v>
       </c>
       <c r="E31" t="n">
-        <v>12.824</v>
+        <v>5.472</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>203.2</v>
+        <v>282.74</v>
       </c>
       <c r="D32" t="n">
-        <v>241.88</v>
+        <v>325.94</v>
       </c>
       <c r="E32" t="n">
-        <v>14.352</v>
+        <v>10.076</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>297.32</v>
+        <v>330.16</v>
       </c>
       <c r="D33" t="n">
-        <v>386.62</v>
+        <v>383.42</v>
       </c>
       <c r="E33" t="n">
-        <v>4.628</v>
+        <v>5.888</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>387.38</v>
+        <v>413.88</v>
       </c>
       <c r="D34" t="n">
-        <v>439.42</v>
+        <v>482.78</v>
       </c>
       <c r="E34" t="n">
-        <v>8.268000000000001</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="35">
@@ -1093,36 +1093,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>241.88</v>
+        <v>482.78</v>
       </c>
       <c r="D35" t="n">
-        <v>280.76</v>
+        <v>551.34</v>
       </c>
       <c r="E35" t="n">
-        <v>11.104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>259.06</v>
+        <v>325.78</v>
       </c>
       <c r="D36" t="n">
-        <v>326.88</v>
+        <v>368</v>
       </c>
       <c r="E36" t="n">
-        <v>7.672</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="37">
@@ -1131,55 +1131,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>280.76</v>
+        <v>551.34</v>
       </c>
       <c r="D37" t="n">
-        <v>349.76</v>
+        <v>620.28</v>
       </c>
       <c r="E37" t="n">
-        <v>5.824</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>439.42</v>
+        <v>300.56</v>
       </c>
       <c r="D38" t="n">
-        <v>494.96</v>
+        <v>372.62</v>
       </c>
       <c r="E38" t="n">
-        <v>3.844</v>
+        <v>4.528</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>349.76</v>
+        <v>325.94</v>
       </c>
       <c r="D39" t="n">
-        <v>398.46</v>
+        <v>394.58</v>
       </c>
       <c r="E39" t="n">
-        <v>3.064</v>
+        <v>5.812</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>386.62</v>
+        <v>394.58</v>
       </c>
       <c r="D40" t="n">
-        <v>430.92</v>
+        <v>451.08</v>
       </c>
       <c r="E40" t="n">
-        <v>1.328</v>
+        <v>2.272</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>430.92</v>
+        <v>372.62</v>
       </c>
       <c r="D41" t="n">
-        <v>505.26</v>
+        <v>412.02</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>2.208</v>
       </c>
     </row>
     <row r="42">
@@ -1226,150 +1226,150 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>173.22</v>
+        <v>383.42</v>
       </c>
       <c r="D42" t="n">
-        <v>225.66</v>
+        <v>422.44</v>
       </c>
       <c r="E42" t="n">
-        <v>14.984</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>398.46</v>
+        <v>267.2</v>
       </c>
       <c r="D43" t="n">
-        <v>445.48</v>
+        <v>329.3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.472</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>445.48</v>
+        <v>329.3</v>
       </c>
       <c r="D44" t="n">
-        <v>531.14</v>
+        <v>393.3</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>326.88</v>
+        <v>368</v>
       </c>
       <c r="D45" t="n">
-        <v>399.78</v>
+        <v>419.08</v>
       </c>
       <c r="E45" t="n">
-        <v>3.992</v>
+        <v>6.912</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>225.66</v>
+        <v>419.08</v>
       </c>
       <c r="D46" t="n">
-        <v>283.16</v>
+        <v>470.32</v>
       </c>
       <c r="E46" t="n">
-        <v>11.344</v>
+        <v>3.428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>531.14</v>
+        <v>393.3</v>
       </c>
       <c r="D47" t="n">
-        <v>604.5599999999999</v>
+        <v>480.6</v>
       </c>
       <c r="E47" t="n">
-        <v>26.808</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>283.16</v>
+        <v>451.08</v>
       </c>
       <c r="D48" t="n">
-        <v>341.5</v>
+        <v>513.54</v>
       </c>
       <c r="E48" t="n">
-        <v>8.119999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>564.15</v>
+        <v>513.54</v>
       </c>
       <c r="D49" t="n">
-        <v>625.75</v>
+        <v>553.62</v>
       </c>
       <c r="E49" t="n">
-        <v>24.12</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="50">
@@ -1378,74 +1378,55 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>341.5</v>
+        <v>422.44</v>
       </c>
       <c r="D50" t="n">
-        <v>390.7</v>
+        <v>512.8099999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>5.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>494.96</v>
+        <v>512.8099999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>575.6</v>
+        <v>567.8099999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.36</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>575.6</v>
+        <v>553.62</v>
       </c>
       <c r="D52" t="n">
-        <v>641.88</v>
+        <v>630.62</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>5</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>pond4</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>505.26</v>
-      </c>
-      <c r="D53" t="n">
-        <v>574.58</v>
-      </c>
-      <c r="E53" t="n">
-        <v>27.228</v>
+        <v>22.632</v>
       </c>
     </row>
   </sheetData>
